--- a/PrefArr.xlsx
+++ b/PrefArr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilrose\PycharmProjects\IC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilrose\Documents\Industry Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,12 +372,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -397,12 +397,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -417,22 +417,22 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -457,7 +457,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -522,6 +522,51 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>0</v>
       </c>
     </row>

--- a/PrefArr.xlsx
+++ b/PrefArr.xlsx
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,6 +570,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PrefArr.xlsx
+++ b/PrefArr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilrose\Documents\Industry Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilrose\PycharmProjects\IC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +575,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PrefArr.xlsx
+++ b/PrefArr.xlsx
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +417,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -427,12 +427,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -452,12 +452,12 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -477,7 +477,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -577,6 +577,21 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>0</v>
       </c>
     </row>
